--- a/工作簿5.xlsx
+++ b/工作簿5.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haish\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="110">
   <si>
     <t>CAT</t>
   </si>
@@ -354,18 +349,14 @@
   </si>
   <si>
     <t>,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>314,67,406,338,188,86,120,101,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,7 +490,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,7 +525,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -711,24 +702,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,14 +763,16 @@
       <c r="U1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="2"/>
+      <c r="W1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -789,50 +782,74 @@
       <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="M2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="3"/>
+      <c r="N2" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="O2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="Q2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="3"/>
+      <c r="R2" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="S2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="3"/>
+      <c r="T2" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="U2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="V2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -842,50 +859,74 @@
       <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="E3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="G3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="I3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="M3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="O3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="Q3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="3"/>
+      <c r="R3" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="S3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="3"/>
+      <c r="T3" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="U3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="V3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="3" t="s">
-        <v>37</v>
+      <c r="X3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
@@ -895,50 +936,74 @@
       <c r="C4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="E4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="G4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="I4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="K4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="M4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="3"/>
+      <c r="N4" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="O4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="3"/>
+      <c r="P4" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="Q4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="3"/>
+      <c r="R4" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="S4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T4" s="3"/>
+      <c r="T4" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="U4" s="3" t="s">
         <v>48</v>
       </c>
       <c r="V4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>37</v>
+      <c r="X4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -948,50 +1013,74 @@
       <c r="C5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="E5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="G5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="I5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="K5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="M5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="3"/>
+      <c r="N5" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="O5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="3"/>
+      <c r="P5" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="Q5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="3"/>
+      <c r="R5" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="S5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="T5" s="3"/>
+      <c r="T5" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="U5" s="3" t="s">
         <v>49</v>
       </c>
       <c r="V5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W5" s="3" t="s">
-        <v>37</v>
+      <c r="X5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" s="3" t="s">
         <v>61</v>
       </c>
@@ -1001,50 +1090,74 @@
       <c r="C6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="E6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="G6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="I6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="K6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="M6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="3"/>
+      <c r="N6" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="O6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="P6" s="3"/>
+      <c r="P6" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="Q6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="R6" s="3"/>
+      <c r="R6" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="S6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="T6" s="3"/>
+      <c r="T6" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="U6" s="3" t="s">
         <v>71</v>
       </c>
       <c r="V6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="W6" s="3" t="s">
-        <v>37</v>
+      <c r="X6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
@@ -1054,50 +1167,74 @@
       <c r="C7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="E7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="I7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="K7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="M7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N7" s="3"/>
+      <c r="N7" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="O7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="P7" s="3"/>
+      <c r="P7" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="Q7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="R7" s="3"/>
+      <c r="R7" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="S7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="T7" s="3"/>
+      <c r="T7" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="U7" s="3" t="s">
         <v>82</v>
       </c>
       <c r="V7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y7" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8" s="3" t="s">
         <v>85</v>
       </c>
@@ -1107,50 +1244,74 @@
       <c r="C8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="E8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="G8" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="I8" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="K8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="M8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="N8" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="O8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="P8" s="3"/>
+      <c r="P8" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="Q8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="R8" s="3"/>
+      <c r="R8" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="S8" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="T8" s="3"/>
+      <c r="T8" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="U8" s="3" t="s">
         <v>95</v>
       </c>
       <c r="V8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9" s="3" t="s">
         <v>97</v>
       </c>
@@ -1160,52 +1321,71 @@
       <c r="C9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="E9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="G9" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="I9" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="K9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="M9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="N9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="O9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="P9" s="3"/>
+      <c r="P9" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="Q9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="R9" s="3"/>
+      <c r="R9" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="S9" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="T9" s="3"/>
+      <c r="T9" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="U9" s="3" t="s">
         <v>107</v>
       </c>
       <c r="V9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="X9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
